--- a/top10.xlsx
+++ b/top10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandre/Library/Mobile Documents/com~apple~CloudDocs/PosTechFiap/FIAP/FASE 1 - DATA ANALYSIS AND EXPLORATION/4 - Tech Challenge/Exportacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16E4995-E85E-4E0F-A027-8F2485CFF8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E83D03-92E6-1C41-8445-742D06CA6F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21800" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
@@ -40,9 +40,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="17">
-  <si>
-    <t>Variable</t>
-  </si>
   <si>
     <t>China</t>
   </si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>Produção</t>
+  </si>
+  <si>
+    <t>Variavel</t>
   </si>
 </sst>
 </file>
@@ -454,6017 +454,6017 @@
   <dimension ref="A1:D429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2008</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2">
         <v>1404600000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2008</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
         <v>164900000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2008</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <v>1260000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2009</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>1451400000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2009</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
         <v>172900000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2009</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
         <v>1280000000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2010</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <v>1518000000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2010</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
         <v>286100000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2010</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2">
         <v>1300000000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2011</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2">
         <v>1645400000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2011</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2">
         <v>365500000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2011</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2">
         <v>1342600000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2012</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2">
         <v>1852500000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2012</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2">
         <v>394300000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2012</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2">
         <v>1606500000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2013</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2">
         <v>1871400000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2013</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2">
         <v>376600000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2013</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2">
         <v>1369300000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2014</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2">
         <v>1736900000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2014</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2">
         <v>383800000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2014</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2">
         <v>1349600000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2015</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2">
         <v>1805700000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2015</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2">
         <v>555500000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2015</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2">
         <v>1334500000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2016</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2">
         <v>1916200000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2016</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2">
         <v>638900000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2016</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2">
         <v>1321700000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2017</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2">
         <v>1928000000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2017</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2">
         <v>751100000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2017</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2">
         <v>1163600000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2018</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2">
         <v>1756800000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2018</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2">
         <v>687600000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2018</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2">
         <v>926900000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2019</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2">
         <v>1499900000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2019</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2">
         <v>612800000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2019</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2">
         <v>782400000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2020</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2">
         <v>1239600000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2020</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2">
         <v>430500000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2020</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2">
         <v>658700000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2021</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2">
         <v>1049200000</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2021</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" s="2">
         <v>424300000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2021</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2">
         <v>590800000</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2022</v>
       </c>
       <c r="B44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2">
         <v>881500000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2022</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2">
         <v>336800000</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2022</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2">
         <v>418200000</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2008</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2">
         <v>2074700000</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2008</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2">
         <v>1370800000</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2008</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2">
         <v>999100000</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2009</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2">
         <v>2022400000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2009</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2">
         <v>1411000000</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2009</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2">
         <v>922800000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2010</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2">
         <v>2020000000</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2010</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2">
         <v>1477800000</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2010</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2">
         <v>690600000</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2011</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2">
         <v>1970700000</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2011</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" s="2">
         <v>1613300000</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2011</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2">
         <v>913200000</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2012</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2">
         <v>2030000000</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2012</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2">
         <v>1537400000</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2012</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2">
         <v>901200000</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2013</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2">
         <v>2040000000</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2013</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" s="2">
         <v>1527400000</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2013</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2">
         <v>840900000</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2014</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2">
         <v>2030000000</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2014</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" s="2">
         <v>1548200000</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2014</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2">
         <v>920200000</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2015</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2">
         <v>2050000000</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2015</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" s="2">
         <v>1542000000</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2015</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2">
         <v>881900000</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2016</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2">
         <v>2020000000</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2016</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2">
         <v>1485100000</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2016</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2">
         <v>901300000</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2017</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2">
         <v>1974500000</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2017</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" s="2">
         <v>1523000000</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2017</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2">
         <v>746200000</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2018</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2">
         <v>2000000000</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2018</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2">
         <v>1465600000</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2018</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2">
         <v>1026800000</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2019</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2">
         <v>1980000000</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2019</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2">
         <v>1480200000</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2019</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2">
         <v>821800000</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2020</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2">
         <v>1984400000</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2020</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84" s="2">
         <v>1448600000</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2020</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2">
         <v>840500000</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2021</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2">
         <v>1990000000</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2021</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2">
         <v>1478100000</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2021</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2">
         <v>844800000</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2022</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2">
         <v>1940000000</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2022</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D90" s="2">
         <v>1352800000</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2022</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2">
         <v>894000000</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2008</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2">
         <v>500000</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2008</v>
       </c>
       <c r="B93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" s="2">
         <v>500000</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2009</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2">
         <v>700000</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2009</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95" s="2">
         <v>700000</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2010</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2">
         <v>700000</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2010</v>
       </c>
       <c r="B97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D97" s="2">
         <v>700000</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2011</v>
       </c>
       <c r="B98" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2">
         <v>800000</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2011</v>
       </c>
       <c r="B99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" s="2">
         <v>800000</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2012</v>
       </c>
       <c r="B100" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2">
         <v>800000</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2012</v>
       </c>
       <c r="B101" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" s="2">
         <v>900000</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2013</v>
       </c>
       <c r="B102" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2">
         <v>800000</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2013</v>
       </c>
       <c r="B103" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103" s="2">
         <v>6900000</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2014</v>
       </c>
       <c r="B104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2">
         <v>1200000</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2014</v>
       </c>
       <c r="B105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D105" s="2">
         <v>1200000</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2015</v>
       </c>
       <c r="B106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2">
         <v>800000</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2015</v>
       </c>
       <c r="B107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" s="2">
         <v>800000</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2016</v>
       </c>
       <c r="B108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2">
         <v>900000</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2016</v>
       </c>
       <c r="B109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D109" s="2">
         <v>1500000</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2017</v>
       </c>
       <c r="B110" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2">
         <v>1600000</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2017</v>
       </c>
       <c r="B111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D111" s="2">
         <v>1800000</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2018</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2">
         <v>1800000</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2018</v>
       </c>
       <c r="B113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D113" s="2">
         <v>1800000</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2019</v>
       </c>
       <c r="B114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2">
         <v>1800000</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2019</v>
       </c>
       <c r="B115" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D115" s="2">
         <v>1800000</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2020</v>
       </c>
       <c r="B116" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2">
         <v>1800000</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2020</v>
       </c>
       <c r="B117" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D117" s="2">
         <v>1800000</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2021</v>
       </c>
       <c r="B118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2">
         <v>1800000</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2021</v>
       </c>
       <c r="B119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D119" s="2">
         <v>1800000</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2008</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2">
         <v>237400000</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2008</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D121" s="2">
         <v>171800000</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2008</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122" s="2">
         <v>66000000</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2009</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2">
         <v>253300000</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2009</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D124" s="2">
         <v>180700000</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2009</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125" s="2">
         <v>73000000</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2010</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2">
         <v>261000000</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2010</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D127" s="2">
         <v>193900000</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2010</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128" s="2">
         <v>75000000</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2011</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2">
         <v>277800000</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2011</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D130" s="2">
         <v>208300000</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2011</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D131" s="2">
         <v>79000000</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2012</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2">
         <v>312000000</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2012</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D133" s="2">
         <v>257100000</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D134" s="2">
         <v>80000000</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D135" s="2">
         <v>339800000</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2013</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D136" s="2">
         <v>263200000</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2013</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D137" s="2">
         <v>80000000</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2014</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D138" s="2">
         <v>349000000</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2014</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D139" s="2">
         <v>270400000</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2014</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D140" s="2">
         <v>85000000</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2015</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2">
         <v>355500000</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2015</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D142" s="2">
         <v>280100000</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2015</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D143" s="2">
         <v>75900000</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2016</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2">
         <v>352300000</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2016</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D145" s="2">
         <v>268600000</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2016</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D146" s="2">
         <v>80600000</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2017</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D147" s="2">
         <v>352400000</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2017</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D148" s="2">
         <v>277500000</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2017</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D149" s="2">
         <v>78600000</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2018</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D150" s="2">
         <v>348800000</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2018</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D151" s="2">
         <v>262100000</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2018</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D152" s="2">
         <v>79800000</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2019</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D153" s="2">
         <v>354300000</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2019</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D154" s="2">
         <v>281000000</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2019</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D155" s="2">
         <v>86100000</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2020</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D156" s="2">
         <v>351800000</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2020</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D157" s="2">
         <v>256200000</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2020</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D158" s="2">
         <v>80500000</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2021</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D159" s="2">
         <v>330300000</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2021</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D160" s="2">
         <v>243800000</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2021</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D161" s="2">
         <v>80500000</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2022</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D162" s="2">
         <v>294500000</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2022</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D163" s="2">
         <v>265500000</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2008</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D164" s="2">
         <v>356800000</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2008</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D165" s="2">
         <v>363100000</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2009</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D166" s="2">
         <v>356800000</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2009</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D167" s="2">
         <v>366900000</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2010</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D168" s="2">
         <v>350000000</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2010</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D169" s="2">
         <v>369200000</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2010</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D170" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2011</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D171" s="2">
         <v>328900000</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2011</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D172" s="2">
         <v>332100000</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2011</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D173" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2012</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D174" s="2">
         <v>315700000</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2012</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D175" s="2">
         <v>355900000</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2012</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D176" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2013</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D177" s="2">
         <v>332300000</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2013</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D178" s="2">
         <v>366900000</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2013</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D179" s="2">
         <v>800000</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2014</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D180" s="2">
         <v>342600000</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2014</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D181" s="2">
         <v>379900000</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2014</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D182" s="2">
         <v>700000</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2015</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D183" s="2">
         <v>345200000</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2015</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D184" s="2">
         <v>383800000</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2015</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D185" s="2">
         <v>800000</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2016</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D186" s="2">
         <v>363600000</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2016</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D187" s="2">
         <v>447800000</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2016</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D188" s="2">
         <v>800000</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2017</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D189" s="2">
         <v>372900000</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2017</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D190" s="2">
         <v>444400000</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2017</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D191" s="2">
         <v>600000</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2018</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D192" s="2">
         <v>357300000</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2018</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D193" s="2">
         <v>422500000</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2018</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D194" s="2">
         <v>600000</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2019</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D195" s="2">
         <v>353200000</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2019</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D196" s="2">
         <v>423200000</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2019</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D197" s="2">
         <v>800000</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2020</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D198" s="2">
         <v>365000000</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2020</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D199" s="2">
         <v>469400000</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2020</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D200" s="2">
         <v>800000</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2021</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D201" s="2">
         <v>374800000</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2021</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D202" s="2">
         <v>491000000</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2021</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D203" s="2">
         <v>800000</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2022</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D204" s="2">
         <v>362200000</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2022</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D205" s="2">
         <v>460500000</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2022</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D206" s="2">
         <v>1000000</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2008</v>
       </c>
       <c r="B207" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D207" s="2">
         <v>56400000</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2008</v>
       </c>
       <c r="B208" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D208" s="2">
         <v>55000000</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2008</v>
       </c>
       <c r="B209" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D209" s="2">
         <v>1400000</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2009</v>
       </c>
       <c r="B210" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D210" s="2">
         <v>41700000</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2009</v>
       </c>
       <c r="B211" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D211" s="2">
         <v>40200000</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2009</v>
       </c>
       <c r="B212" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D212" s="2">
         <v>1400000</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2010</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D213" s="2">
         <v>39600000</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2010</v>
       </c>
       <c r="B214" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D214" s="2">
         <v>36300000</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2010</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D215" s="2">
         <v>1300000</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2011</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D216" s="2">
         <v>34200000</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2011</v>
       </c>
       <c r="B217" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D217" s="2">
         <v>29500000</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2011</v>
       </c>
       <c r="B218" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D218" s="2">
         <v>1400000</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2012</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D219" s="2">
         <v>28900000</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2012</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D220" s="2">
         <v>25600000</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2012</v>
       </c>
       <c r="B221" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D221" s="2">
         <v>1400000</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2013</v>
       </c>
       <c r="B222" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D222" s="2">
         <v>23500000</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2013</v>
       </c>
       <c r="B223" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D223" s="2">
         <v>18600000</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2013</v>
       </c>
       <c r="B224" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D224" s="2">
         <v>1400000</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2014</v>
       </c>
       <c r="B225" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D225" s="2">
         <v>17900000</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2014</v>
       </c>
       <c r="B226" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D226" s="2">
         <v>14300000</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2014</v>
       </c>
       <c r="B227" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D227" s="2">
         <v>1500000</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2015</v>
       </c>
       <c r="B228" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D228" s="2">
         <v>16000000</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2015</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D229" s="2">
         <v>14700000</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2015</v>
       </c>
       <c r="B230" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D230" s="2">
         <v>1500000</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2016</v>
       </c>
       <c r="B231" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D231" s="2">
         <v>20400000</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2016</v>
       </c>
       <c r="B232" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D232" s="2">
         <v>23000000</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2016</v>
       </c>
       <c r="B233" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D233" s="2">
         <v>1600000</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2017</v>
       </c>
       <c r="B234" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D234" s="2">
         <v>24600000</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2017</v>
       </c>
       <c r="B235" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D235" s="2">
         <v>23000000</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2017</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D236" s="2">
         <v>1600000</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2018</v>
       </c>
       <c r="B237" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D237" s="2">
         <v>24700000</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2018</v>
       </c>
       <c r="B238" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D238" s="2">
         <v>23000000</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2018</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C239" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D239" s="2">
         <v>1900000</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2019</v>
       </c>
       <c r="B240" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D240" s="2">
         <v>24900000</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2019</v>
       </c>
       <c r="B241" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D241" s="2">
         <v>23000000</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2019</v>
       </c>
       <c r="B242" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C242" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D242" s="2">
         <v>1800000</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2020</v>
       </c>
       <c r="B243" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D243" s="2">
         <v>24900000</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2020</v>
       </c>
       <c r="B244" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C244" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D244" s="2">
         <v>23400000</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2020</v>
       </c>
       <c r="B245" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D245" s="2">
         <v>1700000</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2021</v>
       </c>
       <c r="B246" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D246" s="2">
         <v>26400000</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2021</v>
       </c>
       <c r="B247" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D247" s="2">
         <v>26000000</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2021</v>
       </c>
       <c r="B248" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C248" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D248" s="2">
         <v>1700000</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2022</v>
       </c>
       <c r="B249" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C249" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D249" s="2">
         <v>20000000</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2008</v>
       </c>
       <c r="B250" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D250" s="2">
         <v>954200000</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2008</v>
       </c>
       <c r="B251" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D251" s="2">
         <v>60700000</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2008</v>
       </c>
       <c r="B252" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D252" s="2">
         <v>3591300000</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2009</v>
       </c>
       <c r="B253" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D253" s="2">
         <v>1041500000</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2009</v>
       </c>
       <c r="B254" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D254" s="2">
         <v>35000000</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2009</v>
       </c>
       <c r="B255" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D255" s="2">
         <v>3609300000</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2010</v>
       </c>
       <c r="B256" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D256" s="2">
         <v>1035900000</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2010</v>
       </c>
       <c r="B257" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D257" s="2">
         <v>40500000</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2010</v>
       </c>
       <c r="B258" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C258" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D258" s="2">
         <v>3535300000</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2011</v>
       </c>
       <c r="B259" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C259" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D259" s="2">
         <v>995000000</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2011</v>
       </c>
       <c r="B260" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C260" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D260" s="2">
         <v>42200000</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2011</v>
       </c>
       <c r="B261" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C261" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D261" s="2">
         <v>3339700000</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2012</v>
       </c>
       <c r="B262" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C262" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D262" s="2">
         <v>985000000</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2012</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C263" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D263" s="2">
         <v>123600000</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2012</v>
       </c>
       <c r="B264" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C264" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D264" s="2">
         <v>3112300000</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2013</v>
       </c>
       <c r="B265" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C265" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D265" s="2">
         <v>982000000</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2013</v>
       </c>
       <c r="B266" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C266" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D266" s="2">
         <v>160300000</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2013</v>
       </c>
       <c r="B267" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C267" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D267" s="2">
         <v>4530800000</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2014</v>
       </c>
       <c r="B268" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C268" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D268" s="2">
         <v>981000000</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2014</v>
       </c>
       <c r="B269" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C269" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D269" s="2">
         <v>48500000</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2014</v>
       </c>
       <c r="B270" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C270" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D270" s="2">
         <v>3949400000</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2015</v>
       </c>
       <c r="B271" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C271" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D271" s="2">
         <v>981000000</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2015</v>
       </c>
       <c r="B272" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C272" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D272" s="2">
         <v>46100000</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2015</v>
       </c>
       <c r="B273" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C273" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D273" s="2">
         <v>3770300000</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2016</v>
       </c>
       <c r="B274" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C274" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D274" s="2">
         <v>1057800000</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2016</v>
       </c>
       <c r="B275" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C275" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D275" s="2">
         <v>61400000</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2016</v>
       </c>
       <c r="B276" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C276" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D276" s="2">
         <v>3997000000</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2017</v>
       </c>
       <c r="B277" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C277" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D277" s="2">
         <v>1037300000</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2017</v>
       </c>
       <c r="B278" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C278" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D278" s="2">
         <v>56100000</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2017</v>
       </c>
       <c r="B279" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C279" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D279" s="2">
         <v>3248000000</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2018</v>
       </c>
       <c r="B280" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C280" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D280" s="2">
         <v>1074100000</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2018</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C281" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D281" s="2">
         <v>94100000</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2018</v>
       </c>
       <c r="B282" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C282" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D282" s="2">
         <v>4493300000</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2019</v>
       </c>
       <c r="B283" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C283" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D283" s="2">
         <v>1022200000</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2019</v>
       </c>
       <c r="B284" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C284" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D284" s="2">
         <v>52400000</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2019</v>
       </c>
       <c r="B285" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C285" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D285" s="2">
         <v>3367600000</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2020</v>
       </c>
       <c r="B286" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C286" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D286" s="2">
         <v>921800000</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2020</v>
       </c>
       <c r="B287" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C287" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D287" s="2">
         <v>94100000</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2020</v>
       </c>
       <c r="B288" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C288" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D288" s="2">
         <v>4094900000</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2021</v>
       </c>
       <c r="B289" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C289" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D289" s="2">
         <v>1031100000</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2021</v>
       </c>
       <c r="B290" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C290" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D290" s="2">
         <v>66600000</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2021</v>
       </c>
       <c r="B291" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C291" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D291" s="2">
         <v>3547100000</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2022</v>
       </c>
       <c r="B292" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C292" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D292" s="2">
         <v>976700000</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2022</v>
       </c>
       <c r="B293" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C293" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D293" s="2">
         <v>64600000</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2022</v>
       </c>
       <c r="B294" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C294" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D294" s="2">
         <v>3570300000</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2008</v>
       </c>
       <c r="B295" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C295" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D295" s="2">
         <v>1348300000</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2008</v>
       </c>
       <c r="B296" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C296" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D296" s="2">
         <v>1151500000</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2008</v>
       </c>
       <c r="B297" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C297" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D297" s="2">
         <v>1900000</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2009</v>
       </c>
       <c r="B298" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C298" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D298" s="2">
         <v>1268000000</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2009</v>
       </c>
       <c r="B299" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C299" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D299" s="2">
         <v>1185900000</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2009</v>
       </c>
       <c r="B300" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C300" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D300" s="2">
         <v>2200000</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2010</v>
       </c>
       <c r="B301" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C301" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D301" s="2">
         <v>1290000000</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2010</v>
       </c>
       <c r="B302" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C302" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D302" s="2">
         <v>1286100000</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2010</v>
       </c>
       <c r="B303" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C303" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D303" s="2">
         <v>2800000</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2011</v>
       </c>
       <c r="B304" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C304" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D304" s="2">
         <v>1286000000</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2011</v>
       </c>
       <c r="B305" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C305" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D305" s="2">
         <v>1329900000</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2011</v>
       </c>
       <c r="B306" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C306" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D306" s="2">
         <v>2300000</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2012</v>
       </c>
       <c r="B307" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C307" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D307" s="2">
         <v>1280100000</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2012</v>
       </c>
       <c r="B308" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C308" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D308" s="2">
         <v>1311800000</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2012</v>
       </c>
       <c r="B309" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C309" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D309" s="2">
         <v>800000</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2013</v>
       </c>
       <c r="B310" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C310" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D310" s="2">
         <v>1273800000</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2013</v>
       </c>
       <c r="B311" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C311" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D311" s="2">
         <v>1304000000</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2013</v>
       </c>
       <c r="B312" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C312" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D312" s="2">
         <v>3300000</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2014</v>
       </c>
       <c r="B313" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C313" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D313" s="2">
         <v>1256200000</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2014</v>
       </c>
       <c r="B314" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C314" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D314" s="2">
         <v>1402400000</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2014</v>
       </c>
       <c r="B315" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C315" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D315" s="2">
         <v>4700000</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2015</v>
       </c>
       <c r="B316" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C316" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D316" s="2">
         <v>1278100000</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2015</v>
       </c>
       <c r="B317" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C317" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D317" s="2">
         <v>1409800000</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2015</v>
       </c>
       <c r="B318" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C318" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D318" s="2">
         <v>4000000</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2016</v>
       </c>
       <c r="B319" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C319" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D319" s="2">
         <v>1293500000</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2016</v>
       </c>
       <c r="B320" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C320" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D320" s="2">
         <v>1361300000</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2016</v>
       </c>
       <c r="B321" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C321" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D321" s="2">
         <v>3800000</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2017</v>
       </c>
       <c r="B322" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C322" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D322" s="2">
         <v>1314800000</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2017</v>
       </c>
       <c r="B323" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C323" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D323" s="2">
         <v>1328200000</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2017</v>
       </c>
       <c r="B324" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C324" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D324" s="2">
         <v>4000000</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2018</v>
       </c>
       <c r="B325" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C325" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D325" s="2">
         <v>1290400000</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2018</v>
       </c>
       <c r="B326" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C326" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D326" s="2">
         <v>1320300000</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2018</v>
       </c>
       <c r="B327" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C327" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D327" s="2">
         <v>9800000</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2019</v>
       </c>
       <c r="B328" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C328" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D328" s="2">
         <v>1303400000</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2019</v>
       </c>
       <c r="B329" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C329" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D329" s="2">
         <v>1346800000</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2019</v>
       </c>
       <c r="B330" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C330" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D330" s="2">
         <v>7900000</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2020</v>
       </c>
       <c r="B331" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C331" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D331" s="2">
         <v>1316000000</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2020</v>
       </c>
       <c r="B332" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C332" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D332" s="2">
         <v>1415400000</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2020</v>
       </c>
       <c r="B333" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C333" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D333" s="2">
         <v>6500000</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2021</v>
       </c>
       <c r="B334" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C334" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D334" s="2">
         <v>1312400000</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2021</v>
       </c>
       <c r="B335" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C335" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D335" s="2">
         <v>1320300000</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2021</v>
       </c>
       <c r="B336" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C336" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D336" s="2">
         <v>6700000</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2022</v>
       </c>
       <c r="B337" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C337" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D337" s="2">
         <v>1283400000</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2022</v>
       </c>
       <c r="B338" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C338" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D338" s="2">
         <v>1299200000</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2022</v>
       </c>
       <c r="B339" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C339" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D339" s="2">
         <v>9100000</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2008</v>
       </c>
       <c r="B340" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C340" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D340" s="2">
         <v>2770000000</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>2008</v>
       </c>
       <c r="B341" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C341" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D341" s="2">
         <v>825000000</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2008</v>
       </c>
       <c r="B342" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C342" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D342" s="2">
         <v>1934000000</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2009</v>
       </c>
       <c r="B343" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C343" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D343" s="2">
         <v>2725000000</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2009</v>
       </c>
       <c r="B344" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C344" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D344" s="2">
         <v>921900000</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2009</v>
       </c>
       <c r="B345" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C345" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D345" s="2">
         <v>2196500000</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>2010</v>
       </c>
       <c r="B346" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C346" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D346" s="2">
         <v>2735000000</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>2010</v>
       </c>
       <c r="B347" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C347" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D347" s="2">
         <v>932000000</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2010</v>
       </c>
       <c r="B348" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C348" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D348" s="2">
         <v>2088700000</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>2011</v>
       </c>
       <c r="B349" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C349" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D349" s="2">
         <v>2906400000</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>2011</v>
       </c>
       <c r="B350" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C350" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D350" s="2">
         <v>1015500000</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2011</v>
       </c>
       <c r="B351" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C351" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D351" s="2">
         <v>2009700000</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2012</v>
       </c>
       <c r="B352" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C352" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D352" s="2">
         <v>2824500000</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2012</v>
       </c>
       <c r="B353" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C353" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D353" s="2">
         <v>1167500000</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2012</v>
       </c>
       <c r="B354" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C354" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D354" s="2">
         <v>2273200000</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2013</v>
       </c>
       <c r="B355" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C355" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D355" s="2">
         <v>3140300000</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>2013</v>
       </c>
       <c r="B356" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C356" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D356" s="2">
         <v>1096600000</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2013</v>
       </c>
       <c r="B357" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C357" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D357" s="2">
         <v>2558400000</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2014</v>
       </c>
       <c r="B358" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C358" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D358" s="2">
         <v>3168700000</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2014</v>
       </c>
       <c r="B359" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C359" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D359" s="2">
         <v>1076600000</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>2014</v>
       </c>
       <c r="B360" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C360" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D360" s="2">
         <v>2425300000</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>2015</v>
       </c>
       <c r="B361" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C361" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D361" s="2">
         <v>3031800000</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2015</v>
       </c>
       <c r="B362" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C362" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D362" s="2">
         <v>1103600000</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2015</v>
       </c>
       <c r="B363" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C363" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D363" s="2">
         <v>2281800000</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2016</v>
       </c>
       <c r="B364" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C364" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D364" s="2">
         <v>3095900000</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2016</v>
       </c>
       <c r="B365" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C365" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D365" s="2">
         <v>1114200000</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2016</v>
       </c>
       <c r="B366" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C366" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D366" s="2">
         <v>2490100000</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2017</v>
       </c>
       <c r="B367" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C367" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D367" s="2">
         <v>3269500000</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2017</v>
       </c>
       <c r="B368" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C368" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D368" s="2">
         <v>1208600000</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2017</v>
       </c>
       <c r="B369" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C369" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D369" s="2">
         <v>2450600000</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2018</v>
       </c>
       <c r="B370" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C370" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D370" s="2">
         <v>3371800000</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2018</v>
       </c>
       <c r="B371" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C371" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D371" s="2">
         <v>1171100000</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2018</v>
       </c>
       <c r="B372" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C372" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D372" s="2">
         <v>2607400000</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2019</v>
       </c>
       <c r="B373" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C373" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D373" s="2">
         <v>3428200000</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>2019</v>
       </c>
       <c r="B374" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C374" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D374" s="2">
         <v>1227800000</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2019</v>
       </c>
       <c r="B375" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C375" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D375" s="2">
         <v>2556200000</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2020</v>
       </c>
       <c r="B376" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C376" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D376" s="2">
         <v>3285400000</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2020</v>
       </c>
       <c r="B377" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C377" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D377" s="2">
         <v>1229500000</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2020</v>
       </c>
       <c r="B378" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C378" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D378" s="2">
         <v>2275000000</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2021</v>
       </c>
       <c r="B379" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C379" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D379" s="2">
         <v>3307900000</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>2021</v>
       </c>
       <c r="B380" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C380" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D380" s="2">
         <v>1391300000</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2021</v>
       </c>
       <c r="B381" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C381" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D381" s="2">
         <v>2407000000</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2022</v>
       </c>
       <c r="B382" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C382" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D382" s="2">
         <v>3434400000</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>2022</v>
       </c>
       <c r="B383" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C383" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D383" s="2">
         <v>1437100000</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2022</v>
       </c>
       <c r="B384" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C384" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D384" s="2">
         <v>2238500000</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2008</v>
       </c>
       <c r="B385" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C385" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D385" s="2">
         <v>79000000</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>2008</v>
       </c>
       <c r="B386" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C386" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D386" s="2">
         <v>2200000</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2008</v>
       </c>
       <c r="B387" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C387" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D387" s="2">
         <v>79600000</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2009</v>
       </c>
       <c r="B388" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C388" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D388" s="2">
         <v>74700000</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2009</v>
       </c>
       <c r="B389" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C389" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D389" s="2">
         <v>3000000</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2009</v>
       </c>
       <c r="B390" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C390" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D390" s="2">
         <v>62000000</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>2010</v>
       </c>
       <c r="B391" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C391" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D391" s="2">
         <v>71200000</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>2010</v>
       </c>
       <c r="B392" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C392" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D392" s="2">
         <v>3400000</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>2010</v>
       </c>
       <c r="B393" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C393" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D393" s="2">
         <v>76900000</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>2011</v>
       </c>
       <c r="B394" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C394" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D394" s="2">
         <v>69000000</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2011</v>
       </c>
       <c r="B395" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C395" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D395" s="2">
         <v>3200000</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>2011</v>
       </c>
       <c r="B396" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C396" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D396" s="2">
         <v>90100000</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>2012</v>
       </c>
       <c r="B397" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C397" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D397" s="2">
         <v>64100000</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>2012</v>
       </c>
       <c r="B398" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C398" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D398" s="2">
         <v>3200000</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>2012</v>
       </c>
       <c r="B399" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C399" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D399" s="2">
         <v>96200000</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>2013</v>
       </c>
       <c r="B400" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C400" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D400" s="2">
         <v>68300000</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2013</v>
       </c>
       <c r="B401" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C401" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D401" s="2">
         <v>2900000</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2013</v>
       </c>
       <c r="B402" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C402" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D402" s="2">
         <v>66700000</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>2014</v>
       </c>
       <c r="B403" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C403" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D403" s="2">
         <v>64700000</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2014</v>
       </c>
       <c r="B404" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C404" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D404" s="2">
         <v>2900000</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2014</v>
       </c>
       <c r="B405" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C405" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D405" s="2">
         <v>67000000</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2015</v>
       </c>
       <c r="B406" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C406" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D406" s="2">
         <v>64000000</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>2015</v>
       </c>
       <c r="B407" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C407" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D407" s="2">
         <v>3000000</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2015</v>
       </c>
       <c r="B408" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C408" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D408" s="2">
         <v>65800000</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2016</v>
       </c>
       <c r="B409" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C409" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D409" s="2">
         <v>60900000</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>2016</v>
       </c>
       <c r="B410" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C410" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D410" s="2">
         <v>3300000</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2016</v>
       </c>
       <c r="B411" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C411" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D411" s="2">
         <v>75500000</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>2017</v>
       </c>
       <c r="B412" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C412" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D412" s="2">
         <v>64700000</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>2017</v>
       </c>
       <c r="B413" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C413" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D413" s="2">
         <v>3500000</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>2017</v>
       </c>
       <c r="B414" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C414" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D414" s="2">
         <v>76300000</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>2018</v>
       </c>
       <c r="B415" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C415" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D415" s="2">
         <v>64500000</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>2018</v>
       </c>
       <c r="B416" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C416" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D416" s="2">
         <v>3500000</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2018</v>
       </c>
       <c r="B417" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C417" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D417" s="2">
         <v>74500000</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>2019</v>
       </c>
       <c r="B418" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C418" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D418" s="2">
         <v>59400000</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>2019</v>
       </c>
       <c r="B419" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C419" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D419" s="2">
         <v>3200000</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>2019</v>
       </c>
       <c r="B420" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C420" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D420" s="2">
         <v>60400000</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>2020</v>
       </c>
       <c r="B421" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C421" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D421" s="2">
         <v>68400000</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>2020</v>
       </c>
       <c r="B422" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C422" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D422" s="2">
         <v>3500000</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>2020</v>
       </c>
       <c r="B423" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C423" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D423" s="2">
         <v>69500000</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2021</v>
       </c>
       <c r="B424" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C424" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D424" s="2">
         <v>64100000</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>2021</v>
       </c>
       <c r="B425" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C425" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D425" s="2">
         <v>5500000</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>2021</v>
       </c>
       <c r="B426" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C426" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D426" s="2">
         <v>74900000</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>2022</v>
       </c>
       <c r="B427" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C427" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D427" s="2">
         <v>59100000</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>2022</v>
       </c>
       <c r="B428" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C428" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D428" s="2">
         <v>4300000</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>2022</v>
       </c>
       <c r="B429" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C429" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D429" s="2">
         <v>75600000</v>

--- a/top10.xlsx
+++ b/top10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandre/Library/Mobile Documents/com~apple~CloudDocs/PosTechFiap/FIAP/FASE 1 - DATA ANALYSIS AND EXPLORATION/4 - Tech Challenge/Exportacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E83D03-92E6-1C41-8445-742D06CA6F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E651DC69-429D-F04F-957B-01649C9F9CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21800" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="18">
   <si>
     <t>China</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Variavel</t>
+  </si>
+  <si>
+    <t>Exportação</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F90730-DE6E-4990-B5C3-FD64641F0A26}">
-  <dimension ref="A1:D429"/>
+  <dimension ref="A1:D564"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
+      <selection activeCell="A430" sqref="A430:D564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6470,6 +6473,1896 @@
         <v>75600000</v>
       </c>
     </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>2008</v>
+      </c>
+      <c r="B430" t="s">
+        <v>0</v>
+      </c>
+      <c r="C430" t="s">
+        <v>17</v>
+      </c>
+      <c r="D430" s="2">
+        <v>5400000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>2009</v>
+      </c>
+      <c r="B431" t="s">
+        <v>0</v>
+      </c>
+      <c r="C431" t="s">
+        <v>17</v>
+      </c>
+      <c r="D431" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>2010</v>
+      </c>
+      <c r="B432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C432" t="s">
+        <v>17</v>
+      </c>
+      <c r="D432" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>2011</v>
+      </c>
+      <c r="B433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C433" t="s">
+        <v>17</v>
+      </c>
+      <c r="D433" s="2">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>2012</v>
+      </c>
+      <c r="B434" t="s">
+        <v>0</v>
+      </c>
+      <c r="C434" t="s">
+        <v>17</v>
+      </c>
+      <c r="D434" s="2">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>2013</v>
+      </c>
+      <c r="B435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C435" t="s">
+        <v>17</v>
+      </c>
+      <c r="D435" s="2">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>2014</v>
+      </c>
+      <c r="B436" t="s">
+        <v>0</v>
+      </c>
+      <c r="C436" t="s">
+        <v>17</v>
+      </c>
+      <c r="D436" s="2">
+        <v>3700000</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>2015</v>
+      </c>
+      <c r="B437" t="s">
+        <v>0</v>
+      </c>
+      <c r="C437" t="s">
+        <v>17</v>
+      </c>
+      <c r="D437" s="2">
+        <v>8200000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>2016</v>
+      </c>
+      <c r="B438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C438" t="s">
+        <v>17</v>
+      </c>
+      <c r="D438" s="2">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>2017</v>
+      </c>
+      <c r="B439" t="s">
+        <v>0</v>
+      </c>
+      <c r="C439" t="s">
+        <v>17</v>
+      </c>
+      <c r="D439" s="2">
+        <v>9400000</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>2018</v>
+      </c>
+      <c r="B440" t="s">
+        <v>0</v>
+      </c>
+      <c r="C440" t="s">
+        <v>17</v>
+      </c>
+      <c r="D440" s="2">
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>2019</v>
+      </c>
+      <c r="B441" t="s">
+        <v>0</v>
+      </c>
+      <c r="C441" t="s">
+        <v>17</v>
+      </c>
+      <c r="D441" s="2">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>2020</v>
+      </c>
+      <c r="B442" t="s">
+        <v>0</v>
+      </c>
+      <c r="C442" t="s">
+        <v>17</v>
+      </c>
+      <c r="D442" s="2">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>2021</v>
+      </c>
+      <c r="B443" t="s">
+        <v>0</v>
+      </c>
+      <c r="C443" t="s">
+        <v>17</v>
+      </c>
+      <c r="D443" s="2">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>2022</v>
+      </c>
+      <c r="B444" t="s">
+        <v>0</v>
+      </c>
+      <c r="C444" t="s">
+        <v>17</v>
+      </c>
+      <c r="D444" s="2">
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>2008</v>
+      </c>
+      <c r="B445" t="s">
+        <v>5</v>
+      </c>
+      <c r="C445" t="s">
+        <v>17</v>
+      </c>
+      <c r="D445" s="2">
+        <v>358000000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>2009</v>
+      </c>
+      <c r="B446" t="s">
+        <v>5</v>
+      </c>
+      <c r="C446" t="s">
+        <v>17</v>
+      </c>
+      <c r="D446" s="2">
+        <v>355700000</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>2010</v>
+      </c>
+      <c r="B447" t="s">
+        <v>5</v>
+      </c>
+      <c r="C447" t="s">
+        <v>17</v>
+      </c>
+      <c r="D447" s="2">
+        <v>392900000</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>2011</v>
+      </c>
+      <c r="B448" t="s">
+        <v>5</v>
+      </c>
+      <c r="C448" t="s">
+        <v>17</v>
+      </c>
+      <c r="D448" s="2">
+        <v>414500000</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>2012</v>
+      </c>
+      <c r="B449" t="s">
+        <v>5</v>
+      </c>
+      <c r="C449" t="s">
+        <v>17</v>
+      </c>
+      <c r="D449" s="2">
+        <v>397300000</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>2013</v>
+      </c>
+      <c r="B450" t="s">
+        <v>5</v>
+      </c>
+      <c r="C450" t="s">
+        <v>17</v>
+      </c>
+      <c r="D450" s="2">
+        <v>390300000</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>2014</v>
+      </c>
+      <c r="B451" t="s">
+        <v>5</v>
+      </c>
+      <c r="C451" t="s">
+        <v>17</v>
+      </c>
+      <c r="D451" s="2">
+        <v>367500000</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>2015</v>
+      </c>
+      <c r="B452" t="s">
+        <v>5</v>
+      </c>
+      <c r="C452" t="s">
+        <v>17</v>
+      </c>
+      <c r="D452" s="2">
+        <v>392800000</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>2016</v>
+      </c>
+      <c r="B453" t="s">
+        <v>5</v>
+      </c>
+      <c r="C453" t="s">
+        <v>17</v>
+      </c>
+      <c r="D453" s="2">
+        <v>360900000</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>2017</v>
+      </c>
+      <c r="B454" t="s">
+        <v>5</v>
+      </c>
+      <c r="C454" t="s">
+        <v>17</v>
+      </c>
+      <c r="D454" s="2">
+        <v>383600000</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>2018</v>
+      </c>
+      <c r="B455" t="s">
+        <v>5</v>
+      </c>
+      <c r="C455" t="s">
+        <v>17</v>
+      </c>
+      <c r="D455" s="2">
+        <v>373100000</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>2019</v>
+      </c>
+      <c r="B456" t="s">
+        <v>5</v>
+      </c>
+      <c r="C456" t="s">
+        <v>17</v>
+      </c>
+      <c r="D456" s="2">
+        <v>383900000</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>2020</v>
+      </c>
+      <c r="B457" t="s">
+        <v>5</v>
+      </c>
+      <c r="C457" t="s">
+        <v>17</v>
+      </c>
+      <c r="D457" s="2">
+        <v>366200000</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>2021</v>
+      </c>
+      <c r="B458" t="s">
+        <v>5</v>
+      </c>
+      <c r="C458" t="s">
+        <v>17</v>
+      </c>
+      <c r="D458" s="2">
+        <v>368900000</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>2022</v>
+      </c>
+      <c r="B459" t="s">
+        <v>5</v>
+      </c>
+      <c r="C459" t="s">
+        <v>17</v>
+      </c>
+      <c r="D459" s="2">
+        <v>353300000</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>2008</v>
+      </c>
+      <c r="B460" t="s">
+        <v>6</v>
+      </c>
+      <c r="C460" t="s">
+        <v>17</v>
+      </c>
+      <c r="D460" s="2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>2009</v>
+      </c>
+      <c r="B461" t="s">
+        <v>6</v>
+      </c>
+      <c r="C461" t="s">
+        <v>17</v>
+      </c>
+      <c r="D461" s="2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>2010</v>
+      </c>
+      <c r="B462" t="s">
+        <v>6</v>
+      </c>
+      <c r="C462" t="s">
+        <v>17</v>
+      </c>
+      <c r="D462" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>2011</v>
+      </c>
+      <c r="B463" t="s">
+        <v>6</v>
+      </c>
+      <c r="C463" t="s">
+        <v>17</v>
+      </c>
+      <c r="D463" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>2012</v>
+      </c>
+      <c r="B464" t="s">
+        <v>6</v>
+      </c>
+      <c r="C464" t="s">
+        <v>17</v>
+      </c>
+      <c r="D464" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>2013</v>
+      </c>
+      <c r="B465" t="s">
+        <v>6</v>
+      </c>
+      <c r="C465" t="s">
+        <v>17</v>
+      </c>
+      <c r="D465" s="2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>2014</v>
+      </c>
+      <c r="B466" t="s">
+        <v>6</v>
+      </c>
+      <c r="C466" t="s">
+        <v>17</v>
+      </c>
+      <c r="D466" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>2015</v>
+      </c>
+      <c r="B467" t="s">
+        <v>6</v>
+      </c>
+      <c r="C467" t="s">
+        <v>17</v>
+      </c>
+      <c r="D467" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>2016</v>
+      </c>
+      <c r="B468" t="s">
+        <v>6</v>
+      </c>
+      <c r="C468" t="s">
+        <v>17</v>
+      </c>
+      <c r="D468" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>2017</v>
+      </c>
+      <c r="B469" t="s">
+        <v>6</v>
+      </c>
+      <c r="C469" t="s">
+        <v>17</v>
+      </c>
+      <c r="D469" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>2018</v>
+      </c>
+      <c r="B470" t="s">
+        <v>6</v>
+      </c>
+      <c r="C470" t="s">
+        <v>17</v>
+      </c>
+      <c r="D470" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>2019</v>
+      </c>
+      <c r="B471" t="s">
+        <v>6</v>
+      </c>
+      <c r="C471" t="s">
+        <v>17</v>
+      </c>
+      <c r="D471" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>2020</v>
+      </c>
+      <c r="B472" t="s">
+        <v>6</v>
+      </c>
+      <c r="C472" t="s">
+        <v>17</v>
+      </c>
+      <c r="D472" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>2021</v>
+      </c>
+      <c r="B473" t="s">
+        <v>6</v>
+      </c>
+      <c r="C473" t="s">
+        <v>17</v>
+      </c>
+      <c r="D473" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>2022</v>
+      </c>
+      <c r="B474" t="s">
+        <v>6</v>
+      </c>
+      <c r="C474" t="s">
+        <v>17</v>
+      </c>
+      <c r="D474" s="2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>2008</v>
+      </c>
+      <c r="B475" t="s">
+        <v>7</v>
+      </c>
+      <c r="C475" t="s">
+        <v>17</v>
+      </c>
+      <c r="D475" s="2">
+        <v>17700000</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>2009</v>
+      </c>
+      <c r="B476" t="s">
+        <v>7</v>
+      </c>
+      <c r="C476" t="s">
+        <v>17</v>
+      </c>
+      <c r="D476" s="2">
+        <v>16700000</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>2010</v>
+      </c>
+      <c r="B477" t="s">
+        <v>7</v>
+      </c>
+      <c r="C477" t="s">
+        <v>17</v>
+      </c>
+      <c r="D477" s="2">
+        <v>14900000</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>2011</v>
+      </c>
+      <c r="B478" t="s">
+        <v>7</v>
+      </c>
+      <c r="C478" t="s">
+        <v>17</v>
+      </c>
+      <c r="D478" s="2">
+        <v>24400000</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>2012</v>
+      </c>
+      <c r="B479" t="s">
+        <v>7</v>
+      </c>
+      <c r="C479" t="s">
+        <v>17</v>
+      </c>
+      <c r="D479" s="2">
+        <v>28200000</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>2013</v>
+      </c>
+      <c r="B480" t="s">
+        <v>7</v>
+      </c>
+      <c r="C480" t="s">
+        <v>17</v>
+      </c>
+      <c r="D480" s="2">
+        <v>25800000</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>2014</v>
+      </c>
+      <c r="B481" t="s">
+        <v>7</v>
+      </c>
+      <c r="C481" t="s">
+        <v>17</v>
+      </c>
+      <c r="D481" s="2">
+        <v>31300000</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>2015</v>
+      </c>
+      <c r="B482" t="s">
+        <v>7</v>
+      </c>
+      <c r="C482" t="s">
+        <v>17</v>
+      </c>
+      <c r="D482" s="2">
+        <v>37600000</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>2016</v>
+      </c>
+      <c r="B483" t="s">
+        <v>7</v>
+      </c>
+      <c r="C483" t="s">
+        <v>17</v>
+      </c>
+      <c r="D483" s="2">
+        <v>66800000</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>2017</v>
+      </c>
+      <c r="B484" t="s">
+        <v>7</v>
+      </c>
+      <c r="C484" t="s">
+        <v>17</v>
+      </c>
+      <c r="D484" s="2">
+        <v>79500000</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>2018</v>
+      </c>
+      <c r="B485" t="s">
+        <v>7</v>
+      </c>
+      <c r="C485" t="s">
+        <v>17</v>
+      </c>
+      <c r="D485" s="2">
+        <v>72700000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>2019</v>
+      </c>
+      <c r="B486" t="s">
+        <v>7</v>
+      </c>
+      <c r="C486" t="s">
+        <v>17</v>
+      </c>
+      <c r="D486" s="2">
+        <v>64900000</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>2020</v>
+      </c>
+      <c r="B487" t="s">
+        <v>7</v>
+      </c>
+      <c r="C487" t="s">
+        <v>17</v>
+      </c>
+      <c r="D487" s="2">
+        <v>96000000</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>2021</v>
+      </c>
+      <c r="B488" t="s">
+        <v>7</v>
+      </c>
+      <c r="C488" t="s">
+        <v>17</v>
+      </c>
+      <c r="D488" s="2">
+        <v>116500000</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>2022</v>
+      </c>
+      <c r="B489" t="s">
+        <v>7</v>
+      </c>
+      <c r="C489" t="s">
+        <v>17</v>
+      </c>
+      <c r="D489" s="2">
+        <v>112300000</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>2008</v>
+      </c>
+      <c r="B490" t="s">
+        <v>9</v>
+      </c>
+      <c r="C490" t="s">
+        <v>17</v>
+      </c>
+      <c r="D490" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>2009</v>
+      </c>
+      <c r="B491" t="s">
+        <v>9</v>
+      </c>
+      <c r="C491" t="s">
+        <v>17</v>
+      </c>
+      <c r="D491" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>2010</v>
+      </c>
+      <c r="B492" t="s">
+        <v>9</v>
+      </c>
+      <c r="C492" t="s">
+        <v>17</v>
+      </c>
+      <c r="D492" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>2011</v>
+      </c>
+      <c r="B493" t="s">
+        <v>9</v>
+      </c>
+      <c r="C493" t="s">
+        <v>17</v>
+      </c>
+      <c r="D493" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>2012</v>
+      </c>
+      <c r="B494" t="s">
+        <v>9</v>
+      </c>
+      <c r="C494" t="s">
+        <v>17</v>
+      </c>
+      <c r="D494" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>2013</v>
+      </c>
+      <c r="B495" t="s">
+        <v>9</v>
+      </c>
+      <c r="C495" t="s">
+        <v>17</v>
+      </c>
+      <c r="D495" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>2014</v>
+      </c>
+      <c r="B496" t="s">
+        <v>9</v>
+      </c>
+      <c r="C496" t="s">
+        <v>17</v>
+      </c>
+      <c r="D496" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>2015</v>
+      </c>
+      <c r="B497" t="s">
+        <v>9</v>
+      </c>
+      <c r="C497" t="s">
+        <v>17</v>
+      </c>
+      <c r="D497" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>2016</v>
+      </c>
+      <c r="B498" t="s">
+        <v>9</v>
+      </c>
+      <c r="C498" t="s">
+        <v>17</v>
+      </c>
+      <c r="D498" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>2017</v>
+      </c>
+      <c r="B499" t="s">
+        <v>9</v>
+      </c>
+      <c r="C499" t="s">
+        <v>17</v>
+      </c>
+      <c r="D499" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>2018</v>
+      </c>
+      <c r="B500" t="s">
+        <v>9</v>
+      </c>
+      <c r="C500" t="s">
+        <v>17</v>
+      </c>
+      <c r="D500" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>2019</v>
+      </c>
+      <c r="B501" t="s">
+        <v>9</v>
+      </c>
+      <c r="C501" t="s">
+        <v>17</v>
+      </c>
+      <c r="D501" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>2020</v>
+      </c>
+      <c r="B502" t="s">
+        <v>9</v>
+      </c>
+      <c r="C502" t="s">
+        <v>17</v>
+      </c>
+      <c r="D502" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>2021</v>
+      </c>
+      <c r="B503" t="s">
+        <v>9</v>
+      </c>
+      <c r="C503" t="s">
+        <v>17</v>
+      </c>
+      <c r="D503" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>2022</v>
+      </c>
+      <c r="B504" t="s">
+        <v>9</v>
+      </c>
+      <c r="C504" t="s">
+        <v>17</v>
+      </c>
+      <c r="D504" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>2008</v>
+      </c>
+      <c r="B505" t="s">
+        <v>8</v>
+      </c>
+      <c r="C505" t="s">
+        <v>17</v>
+      </c>
+      <c r="D505" s="2">
+        <v>1691400000</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>2009</v>
+      </c>
+      <c r="B506" t="s">
+        <v>8</v>
+      </c>
+      <c r="C506" t="s">
+        <v>17</v>
+      </c>
+      <c r="D506" s="2">
+        <v>1460700000</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>2010</v>
+      </c>
+      <c r="B507" t="s">
+        <v>8</v>
+      </c>
+      <c r="C507" t="s">
+        <v>17</v>
+      </c>
+      <c r="D507" s="2">
+        <v>1715600000</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>2011</v>
+      </c>
+      <c r="B508" t="s">
+        <v>8</v>
+      </c>
+      <c r="C508" t="s">
+        <v>17</v>
+      </c>
+      <c r="D508" s="2">
+        <v>2203100000</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>2012</v>
+      </c>
+      <c r="B509" t="s">
+        <v>8</v>
+      </c>
+      <c r="C509" t="s">
+        <v>17</v>
+      </c>
+      <c r="D509" s="2">
+        <v>2141100000</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>2013</v>
+      </c>
+      <c r="B510" t="s">
+        <v>8</v>
+      </c>
+      <c r="C510" t="s">
+        <v>17</v>
+      </c>
+      <c r="D510" s="2">
+        <v>1845000000</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>2014</v>
+      </c>
+      <c r="B511" t="s">
+        <v>8</v>
+      </c>
+      <c r="C511" t="s">
+        <v>17</v>
+      </c>
+      <c r="D511" s="2">
+        <v>2308800000</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>2015</v>
+      </c>
+      <c r="B512" t="s">
+        <v>8</v>
+      </c>
+      <c r="C512" t="s">
+        <v>17</v>
+      </c>
+      <c r="D512" s="2">
+        <v>2439500000</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>2016</v>
+      </c>
+      <c r="B513" t="s">
+        <v>8</v>
+      </c>
+      <c r="C513" t="s">
+        <v>17</v>
+      </c>
+      <c r="D513" s="2">
+        <v>2262600000</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>2017</v>
+      </c>
+      <c r="B514" t="s">
+        <v>8</v>
+      </c>
+      <c r="C514" t="s">
+        <v>17</v>
+      </c>
+      <c r="D514" s="2">
+        <v>2331100000</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>2018</v>
+      </c>
+      <c r="B515" t="s">
+        <v>8</v>
+      </c>
+      <c r="C515" t="s">
+        <v>17</v>
+      </c>
+      <c r="D515" s="2">
+        <v>2030800000</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>2019</v>
+      </c>
+      <c r="B516" t="s">
+        <v>8</v>
+      </c>
+      <c r="C516" t="s">
+        <v>17</v>
+      </c>
+      <c r="D516" s="2">
+        <v>2138700000</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>2020</v>
+      </c>
+      <c r="B517" t="s">
+        <v>8</v>
+      </c>
+      <c r="C517" t="s">
+        <v>17</v>
+      </c>
+      <c r="D517" s="2">
+        <v>2017200000</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>2021</v>
+      </c>
+      <c r="B518" t="s">
+        <v>8</v>
+      </c>
+      <c r="C518" t="s">
+        <v>17</v>
+      </c>
+      <c r="D518" s="2">
+        <v>2298500000</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>2022</v>
+      </c>
+      <c r="B519" t="s">
+        <v>8</v>
+      </c>
+      <c r="C519" t="s">
+        <v>17</v>
+      </c>
+      <c r="D519" s="2">
+        <v>2089500000</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>2008</v>
+      </c>
+      <c r="B520" t="s">
+        <v>11</v>
+      </c>
+      <c r="C520" t="s">
+        <v>17</v>
+      </c>
+      <c r="D520" s="2">
+        <v>43300000</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>2009</v>
+      </c>
+      <c r="B521" t="s">
+        <v>11</v>
+      </c>
+      <c r="C521" t="s">
+        <v>17</v>
+      </c>
+      <c r="D521" s="2">
+        <v>54500000</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>2010</v>
+      </c>
+      <c r="B522" t="s">
+        <v>11</v>
+      </c>
+      <c r="C522" t="s">
+        <v>17</v>
+      </c>
+      <c r="D522" s="2">
+        <v>89800000</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>2011</v>
+      </c>
+      <c r="B523" t="s">
+        <v>11</v>
+      </c>
+      <c r="C523" t="s">
+        <v>17</v>
+      </c>
+      <c r="D523" s="2">
+        <v>86600000</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>2012</v>
+      </c>
+      <c r="B524" t="s">
+        <v>11</v>
+      </c>
+      <c r="C524" t="s">
+        <v>17</v>
+      </c>
+      <c r="D524" s="2">
+        <v>80000000</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>2013</v>
+      </c>
+      <c r="B525" t="s">
+        <v>11</v>
+      </c>
+      <c r="C525" t="s">
+        <v>17</v>
+      </c>
+      <c r="D525" s="2">
+        <v>95100000</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>2014</v>
+      </c>
+      <c r="B526" t="s">
+        <v>11</v>
+      </c>
+      <c r="C526" t="s">
+        <v>17</v>
+      </c>
+      <c r="D526" s="2">
+        <v>103700000</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>2015</v>
+      </c>
+      <c r="B527" t="s">
+        <v>11</v>
+      </c>
+      <c r="C527" t="s">
+        <v>17</v>
+      </c>
+      <c r="D527" s="2">
+        <v>94200000</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>2016</v>
+      </c>
+      <c r="B528" t="s">
+        <v>11</v>
+      </c>
+      <c r="C528" t="s">
+        <v>17</v>
+      </c>
+      <c r="D528" s="2">
+        <v>78600000</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>2017</v>
+      </c>
+      <c r="B529" t="s">
+        <v>11</v>
+      </c>
+      <c r="C529" t="s">
+        <v>17</v>
+      </c>
+      <c r="D529" s="2">
+        <v>96200000</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>2018</v>
+      </c>
+      <c r="B530" t="s">
+        <v>11</v>
+      </c>
+      <c r="C530" t="s">
+        <v>17</v>
+      </c>
+      <c r="D530" s="2">
+        <v>114400000</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>2019</v>
+      </c>
+      <c r="B531" t="s">
+        <v>11</v>
+      </c>
+      <c r="C531" t="s">
+        <v>17</v>
+      </c>
+      <c r="D531" s="2">
+        <v>95400000</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>2020</v>
+      </c>
+      <c r="B532" t="s">
+        <v>11</v>
+      </c>
+      <c r="C532" t="s">
+        <v>17</v>
+      </c>
+      <c r="D532" s="2">
+        <v>88300000</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>2021</v>
+      </c>
+      <c r="B533" t="s">
+        <v>11</v>
+      </c>
+      <c r="C533" t="s">
+        <v>17</v>
+      </c>
+      <c r="D533" s="2">
+        <v>35800000</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>2022</v>
+      </c>
+      <c r="B534" t="s">
+        <v>11</v>
+      </c>
+      <c r="C534" t="s">
+        <v>17</v>
+      </c>
+      <c r="D534" s="2">
+        <v>32600000</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>2008</v>
+      </c>
+      <c r="B535" t="s">
+        <v>12</v>
+      </c>
+      <c r="C535" t="s">
+        <v>17</v>
+      </c>
+      <c r="D535" s="2">
+        <v>463800000</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>2009</v>
+      </c>
+      <c r="B536" t="s">
+        <v>12</v>
+      </c>
+      <c r="C536" t="s">
+        <v>17</v>
+      </c>
+      <c r="D536" s="2">
+        <v>397400000</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>2010</v>
+      </c>
+      <c r="B537" t="s">
+        <v>12</v>
+      </c>
+      <c r="C537" t="s">
+        <v>17</v>
+      </c>
+      <c r="D537" s="2">
+        <v>400900000</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>2011</v>
+      </c>
+      <c r="B538" t="s">
+        <v>12</v>
+      </c>
+      <c r="C538" t="s">
+        <v>17</v>
+      </c>
+      <c r="D538" s="2">
+        <v>416500000</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>2012</v>
+      </c>
+      <c r="B539" t="s">
+        <v>12</v>
+      </c>
+      <c r="C539" t="s">
+        <v>17</v>
+      </c>
+      <c r="D539" s="2">
+        <v>400400000</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>2013</v>
+      </c>
+      <c r="B540" t="s">
+        <v>12</v>
+      </c>
+      <c r="C540" t="s">
+        <v>17</v>
+      </c>
+      <c r="D540" s="2">
+        <v>414700000</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>2014</v>
+      </c>
+      <c r="B541" t="s">
+        <v>12</v>
+      </c>
+      <c r="C541" t="s">
+        <v>17</v>
+      </c>
+      <c r="D541" s="2">
+        <v>404700000</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>2015</v>
+      </c>
+      <c r="B542" t="s">
+        <v>12</v>
+      </c>
+      <c r="C542" t="s">
+        <v>17</v>
+      </c>
+      <c r="D542" s="2">
+        <v>418900000</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>2016</v>
+      </c>
+      <c r="B543" t="s">
+        <v>12</v>
+      </c>
+      <c r="C543" t="s">
+        <v>17</v>
+      </c>
+      <c r="D543" s="2">
+        <v>379000000</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>2017</v>
+      </c>
+      <c r="B544" t="s">
+        <v>12</v>
+      </c>
+      <c r="C544" t="s">
+        <v>17</v>
+      </c>
+      <c r="D544" s="2">
+        <v>345400000</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>2018</v>
+      </c>
+      <c r="B545" t="s">
+        <v>12</v>
+      </c>
+      <c r="C545" t="s">
+        <v>17</v>
+      </c>
+      <c r="D545" s="2">
+        <v>348700000</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>2019</v>
+      </c>
+      <c r="B546" t="s">
+        <v>12</v>
+      </c>
+      <c r="C546" t="s">
+        <v>17</v>
+      </c>
+      <c r="D546" s="2">
+        <v>357300000</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>2020</v>
+      </c>
+      <c r="B547" t="s">
+        <v>12</v>
+      </c>
+      <c r="C547" t="s">
+        <v>17</v>
+      </c>
+      <c r="D547" s="2">
+        <v>360400000</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>2021</v>
+      </c>
+      <c r="B548" t="s">
+        <v>12</v>
+      </c>
+      <c r="C548" t="s">
+        <v>17</v>
+      </c>
+      <c r="D548" s="2">
+        <v>326600000</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>2022</v>
+      </c>
+      <c r="B549" t="s">
+        <v>12</v>
+      </c>
+      <c r="C549" t="s">
+        <v>17</v>
+      </c>
+      <c r="D549" s="2">
+        <v>278500000</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>2008</v>
+      </c>
+      <c r="B550" t="s">
+        <v>10</v>
+      </c>
+      <c r="C550" t="s">
+        <v>17</v>
+      </c>
+      <c r="D550" s="2">
+        <v>13400000</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>2009</v>
+      </c>
+      <c r="B551" t="s">
+        <v>10</v>
+      </c>
+      <c r="C551" t="s">
+        <v>17</v>
+      </c>
+      <c r="D551" s="2">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>2010</v>
+      </c>
+      <c r="B552" t="s">
+        <v>10</v>
+      </c>
+      <c r="C552" t="s">
+        <v>17</v>
+      </c>
+      <c r="D552" s="2">
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>2011</v>
+      </c>
+      <c r="B553" t="s">
+        <v>10</v>
+      </c>
+      <c r="C553" t="s">
+        <v>17</v>
+      </c>
+      <c r="D553" s="2">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>2012</v>
+      </c>
+      <c r="B554" t="s">
+        <v>10</v>
+      </c>
+      <c r="C554" t="s">
+        <v>17</v>
+      </c>
+      <c r="D554" s="2">
+        <v>19700000</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>2013</v>
+      </c>
+      <c r="B555" t="s">
+        <v>10</v>
+      </c>
+      <c r="C555" t="s">
+        <v>17</v>
+      </c>
+      <c r="D555" s="2">
+        <v>15200000</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>2014</v>
+      </c>
+      <c r="B556" t="s">
+        <v>10</v>
+      </c>
+      <c r="C556" t="s">
+        <v>17</v>
+      </c>
+      <c r="D556" s="2">
+        <v>4300000</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>2015</v>
+      </c>
+      <c r="B557" t="s">
+        <v>10</v>
+      </c>
+      <c r="C557" t="s">
+        <v>17</v>
+      </c>
+      <c r="D557" s="2">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>2016</v>
+      </c>
+      <c r="B558" t="s">
+        <v>10</v>
+      </c>
+      <c r="C558" t="s">
+        <v>17</v>
+      </c>
+      <c r="D558" s="2">
+        <v>3400000</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>2017</v>
+      </c>
+      <c r="B559" t="s">
+        <v>10</v>
+      </c>
+      <c r="C559" t="s">
+        <v>17</v>
+      </c>
+      <c r="D559" s="2">
+        <v>5800000</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>2018</v>
+      </c>
+      <c r="B560" t="s">
+        <v>10</v>
+      </c>
+      <c r="C560" t="s">
+        <v>17</v>
+      </c>
+      <c r="D560" s="2">
+        <v>18500000</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>2019</v>
+      </c>
+      <c r="B561" t="s">
+        <v>10</v>
+      </c>
+      <c r="C561" t="s">
+        <v>17</v>
+      </c>
+      <c r="D561" s="2">
+        <v>5800000</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>2020</v>
+      </c>
+      <c r="B562" t="s">
+        <v>10</v>
+      </c>
+      <c r="C562" t="s">
+        <v>17</v>
+      </c>
+      <c r="D562" s="2">
+        <v>6900000</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>2021</v>
+      </c>
+      <c r="B563" t="s">
+        <v>10</v>
+      </c>
+      <c r="C563" t="s">
+        <v>17</v>
+      </c>
+      <c r="D563" s="2">
+        <v>5300000</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>2022</v>
+      </c>
+      <c r="B564" t="s">
+        <v>10</v>
+      </c>
+      <c r="C564" t="s">
+        <v>17</v>
+      </c>
+      <c r="D564" s="2">
+        <v>5300000</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D429" xr:uid="{47F90730-DE6E-4990-B5C3-FD64641F0A26}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
